--- a/agile/SprintBackLog.xlsx
+++ b/agile/SprintBackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\looki\Documents\GitHub\2DGraphicsProject\agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{604E5A2B-0D25-4022-94C4-F4D776801545}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A834656-778F-41E9-8724-4C771925C8D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{A30F1A75-6095-4F9A-B3EB-541365D17BBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -36,24 +36,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>a file to create shapes.</t>
-  </si>
-  <si>
     <t>Task 1</t>
   </si>
   <si>
     <t>Task 2</t>
   </si>
   <si>
-    <t>#1 As a computer programmer, I can manually input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2 As a computer programmer, I can receive verbose </t>
-  </si>
-  <si>
-    <t>errors from the file parser</t>
-  </si>
-  <si>
     <t>#3 As a teacher, I can login to the program</t>
   </si>
   <si>
@@ -69,27 +57,9 @@
     <t>#6 As a student, I can define multiple shapes</t>
   </si>
   <si>
-    <t xml:space="preserve">#7 As a user, I can change user-defined shapes </t>
-  </si>
-  <si>
-    <t>and save to a file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#8 As a student, I can calculate the dimensions, </t>
-  </si>
-  <si>
-    <t>perimeter, or area of any shape</t>
-  </si>
-  <si>
     <t>#9 As a user, my username and password will be "encrypted"</t>
   </si>
   <si>
-    <t xml:space="preserve">#10 As a tester, I know who developed the program </t>
-  </si>
-  <si>
-    <t>and who to contact if I discover bugs</t>
-  </si>
-  <si>
     <t>Original Estimate (hrs)</t>
   </si>
   <si>
@@ -105,20 +75,44 @@
     <t>Justis</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
     <t>Task (see Userstory.txt)</t>
+  </si>
+  <si>
+    <t>Completed in Sprint 1</t>
+  </si>
+  <si>
+    <t>#1 As a computer programmer, I can manually input a file to create shapes.</t>
+  </si>
+  <si>
+    <t>#2 As a computer programmer, I can receive verbose errors from the file parser</t>
+  </si>
+  <si>
+    <t>#7 As a user, I can change user-defined shapes and save to a file</t>
+  </si>
+  <si>
+    <t>#8 As a student, I can calculate the dimensions, perimeter, or area of any shape</t>
+  </si>
+  <si>
+    <t>#10 As a tester, I know who developed the program and who to contact if I discover bugs</t>
+  </si>
+  <si>
+    <t>Sprint Reivew</t>
+  </si>
+  <si>
+    <t>Discarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +128,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,18 +158,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,6 +200,951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Backlog</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hrs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0204-457A-B5C2-41D48218F32D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1293384799"/>
+        <c:axId val="1291627727"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1293384799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291627727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1291627727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293384799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08F3FE7-3C61-46ED-B304-C28664ADF42D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,19 +1444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66077-728F-4E10-A634-0320A8F488FB}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
@@ -498,14 +1466,15 @@
     <col min="12" max="13" width="11.77734375" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -514,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2">
         <v>43297</v>
@@ -546,309 +1515,784 @@
       <c r="O1" s="2">
         <v>43306</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>16</v>
       </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>12</v>
       </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>18</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>1</v>
       </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
+        <f>SUM(F8,F10,F11,F12,F13,F14,F17,F18,F19)</f>
+        <v>9</v>
+      </c>
+      <c r="G21" s="3">
+        <f>SUM(G8,G10,G11,G12,G13,G14,G17,G18,G19)</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <f>SUM(H8,H10,H10:H14,H17:H19)</f>
+        <v>13</v>
+      </c>
+      <c r="I21" s="3">
+        <f>SUM(I8,I10:I14,I17:I19)</f>
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
+        <f>SUM(J8,J10:J14,J17:J19)</f>
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f>SUM(L8,L10:L14,L17:L20)</f>
+        <v>9</v>
+      </c>
+      <c r="M21" s="3">
+        <f>SUM(M8,M10:M14,M17:M19)</f>
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="F4:O5"/>
+    <mergeCell ref="F6:O7"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="F2:O3"/>
+    <mergeCell ref="F15:O16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/agile/SprintBackLog.xlsx
+++ b/agile/SprintBackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\looki\Documents\GitHub\2DGraphicsProject\agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A834656-778F-41E9-8724-4C771925C8D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7378D37D-D788-439B-9518-66AE52EE139B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{A30F1A75-6095-4F9A-B3EB-541365D17BBD}"/>
   </bookViews>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66077-728F-4E10-A634-0320A8F488FB}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,9 +2271,7 @@
       <c r="O21" s="3">
         <v>1</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
